--- a/src/main/resources/static/files/车次导入模板.xlsx
+++ b/src/main/resources/static/files/车次导入模板.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,86 +36,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D5203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一等座价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一等座票数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二等座价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二等座票数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站票数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>襄阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:20</t>
+  </si>
+  <si>
+    <t>商务座价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务座票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特等座票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特等座价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无座价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无座票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级软卧价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级软卧票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软卧价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软卧票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬座价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬座票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬卧价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬卧票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软座价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软座票数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -146,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +198,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -190,14 +236,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -244,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,28 +494,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,122 +534,164 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>300</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+      <c r="J3">
         <v>58.5</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>300</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>47.5</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>1000</v>
       </c>
-      <c r="J3">
+      <c r="X3">
         <v>47.5</v>
       </c>
-      <c r="K3">
+      <c r="Y3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="J4">
         <v>110.5</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>300</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>92.5</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>1000</v>
       </c>
-      <c r="J4">
+      <c r="X4">
         <v>92.5</v>
       </c>
-      <c r="K4">
+      <c r="Y4">
         <v>500</v>
       </c>
     </row>
